--- a/pub-jaen/jaen/schema_gen/cybox_genj.xlsx
+++ b/pub-jaen/jaen/schema_gen/cybox_genj.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="170">
   <si>
-    <t>Generated from schema\cybox.jaen, Sat Mar 11 12:06:02 2017</t>
+    <t>Generated from schema\cybox.jaen, Mon Mar 13 12:57:35 2017</t>
   </si>
   <si>
     <t>module</t>

--- a/pub-jaen/jaen/schema_gen/cybox_genj.xlsx
+++ b/pub-jaen/jaen/schema_gen/cybox_genj.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="170">
   <si>
-    <t>Generated from schema\cybox.jaen, Mon Mar 13 12:57:35 2017</t>
+    <t>Generated from schema\cybox.jaen, Thu Mar 16 11:41:46 2017</t>
   </si>
   <si>
     <t>module</t>

--- a/pub-jaen/jaen/schema_gen/cybox_genj.xlsx
+++ b/pub-jaen/jaen/schema_gen/cybox_genj.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="170">
   <si>
-    <t>Generated from schema\cybox.jaen, Thu Mar 16 11:41:46 2017</t>
+    <t>Generated from schema\cybox.jaen, Fri Mar 17 11:25:15 2017</t>
   </si>
   <si>
     <t>module</t>

--- a/pub-jaen/jaen/schema_gen/cybox_genj.xlsx
+++ b/pub-jaen/jaen/schema_gen/cybox_genj.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="170">
   <si>
-    <t>Generated from schema\cybox.jaen, Fri Mar 17 11:25:15 2017</t>
+    <t>Generated from schema\cybox.jaen, Wed Mar 22 16:59:38 2017</t>
   </si>
   <si>
     <t>module</t>

--- a/pub-jaen/jaen/schema_gen/cybox_genj.xlsx
+++ b/pub-jaen/jaen/schema_gen/cybox_genj.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="170">
   <si>
-    <t>Generated from schema\cybox.jaen, Wed Mar 22 16:59:38 2017</t>
+    <t>Generated from schema\cybox.jaen, Fri Mar 24 16:33:10 2017</t>
   </si>
   <si>
     <t>module</t>

--- a/pub-jaen/jaen/schema_gen/cybox_genj.xlsx
+++ b/pub-jaen/jaen/schema_gen/cybox_genj.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="170">
   <si>
-    <t>Generated from schema\cybox.jaen, Fri Mar 24 16:33:10 2017</t>
+    <t>Generated from schema\cybox.jaen, Mon Mar 27 11:47:40 2017</t>
   </si>
   <si>
     <t>module</t>

--- a/pub-jaen/jaen/schema_gen/cybox_genj.xlsx
+++ b/pub-jaen/jaen/schema_gen/cybox_genj.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="170">
   <si>
-    <t>Generated from schema\cybox.jaen, Mon Mar 27 11:47:40 2017</t>
+    <t>Generated from schema\cybox.jaen, Mon Mar 27 15:11:59 2017</t>
   </si>
   <si>
     <t>module</t>
